--- a/testing/d0g_b.xlsx
+++ b/testing/d0g_b.xlsx
@@ -2358,10 +2358,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="17">
-        <v>0.058772227706744534</v>
+        <v>50.021050241203319</v>
       </c>
       <c r="C3" s="20">
-        <v>0.061116770850622629</v>
+        <v>50.081785624074378</v>
       </c>
     </row>
     <row r="4">
@@ -2369,10 +2369,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="25">
-        <v>0.25325882426051965</v>
+        <v>49.950097687778069</v>
       </c>
       <c r="C4" s="28">
-        <v>0.26031374208423047</v>
+        <v>50.037720871183069</v>
       </c>
     </row>
     <row r="5">
@@ -2380,10 +2380,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="33">
-        <v>0.54982399904138002</v>
+        <v>49.992580497477412</v>
       </c>
       <c r="C5" s="36">
-        <v>0.56227460228049919</v>
+        <v>50.098066932655975</v>
       </c>
     </row>
     <row r="6">
@@ -2391,10 +2391,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="41">
-        <v>0.7406900838630246</v>
+        <v>49.742032858979286</v>
       </c>
       <c r="C6" s="44">
-        <v>0.75855840940941743</v>
+        <v>49.861034278436001</v>
       </c>
     </row>
     <row r="7">
@@ -2402,10 +2402,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="49">
-        <v>1.0605272257458529</v>
+        <v>50.301427828224497</v>
       </c>
       <c r="C7" s="52">
-        <v>1.0844844431912717</v>
+        <v>50.430793361179198</v>
       </c>
     </row>
     <row r="8">
@@ -2418,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="59">
-        <v>0.49787712979182075</v>
+        <v>0.062179543649808135</v>
       </c>
       <c r="C9" s="62">
-        <v>0.49779502520081448</v>
+        <v>0.057790335571873179</v>
       </c>
     </row>
     <row r="10">
@@ -2462,10 +2462,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="91">
-        <v>2.374133874781704</v>
+        <v>1.4502498382035611</v>
       </c>
       <c r="C13" s="94">
-        <v>2.3746894312261571</v>
+        <v>1.4603098939655379</v>
       </c>
     </row>
     <row r="14">
@@ -2473,10 +2473,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="99">
-        <v>6.5210843261628746</v>
+        <v>54.500806316273263</v>
       </c>
       <c r="C14" s="102">
-        <v>6.5214330023463996</v>
+        <v>54.547011487965577</v>
       </c>
     </row>
     <row r="15">
@@ -2484,10 +2484,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="107">
-        <v>10.214173485656548</v>
+        <v>53.03289524862447</v>
       </c>
       <c r="C15" s="110">
-        <v>10.214154127039246</v>
+        <v>53.025335621785025</v>
       </c>
     </row>
     <row r="16">
@@ -2500,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="117">
-        <v>0.010121132375597846</v>
+        <v>-0.17012947120127564</v>
       </c>
     </row>
     <row r="18">
@@ -2508,7 +2508,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="122">
-        <v>-0.0043023377511083117</v>
+        <v>0.0042909353465846326</v>
       </c>
     </row>
     <row r="19">
@@ -2516,7 +2516,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="127">
-        <v>0.0077560143691266245</v>
+        <v>0.0048958564920162737</v>
       </c>
     </row>
     <row r="20">
@@ -2524,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="132">
-        <v>-2.9961686220096939</v>
+        <v>-1.5298114510016303</v>
       </c>
     </row>
     <row r="21">
@@ -2532,7 +2532,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="137">
-        <v>0.68846147421339288</v>
+        <v>-0.012826385019179898</v>
       </c>
     </row>
     <row r="22">
@@ -2540,10 +2540,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="144">
-        <v>7862</v>
+        <v>8480</v>
       </c>
       <c r="C22" s="148">
-        <v>9637</v>
+        <v>10352</v>
       </c>
     </row>
   </sheetData>
